--- a/indicadores.xlsx
+++ b/indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Santos\Desktop\indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D0ABE-3177-4DE7-90B1-8E5E4DD752BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F267C-773A-40DA-AC81-C2AE00AD8371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="134">
   <si>
     <t xml:space="preserve"> PLAN DE CONTINGENCIA PARA ALERTAS Y EMERGENCIA POR FIEBRE AMARILLA EN COLOMBIA
 FICHA DE INDICADORES</t>
@@ -844,7 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -1148,9 +1148,6 @@
     <xf numFmtId="9" fontId="7" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,21 +1160,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1217,8 +1201,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,8 +1506,8 @@
   </sheetPr>
   <dimension ref="A1:BT932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="58" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1540,42 +1540,42 @@
   <sheetData>
     <row r="1" spans="1:72" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
@@ -1615,115 +1615,115 @@
       <c r="BT1" s="18"/>
     </row>
     <row r="2" spans="1:72" s="19" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="74"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="68"/>
     </row>
     <row r="3" spans="1:72" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="63" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="63" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="63" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="63" t="s">
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="63" t="s">
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="70" t="s">
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="63" t="s">
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="63" t="s">
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="63" t="s">
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:72" s="19" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="20" t="s">
         <v>16</v>
       </c>
@@ -1778,10 +1778,10 @@
       <c r="W4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="Y4" s="53" t="s">
         <v>20</v>
       </c>
       <c r="Z4" s="5" t="s">
@@ -1884,7 +1884,7 @@
         <v>128</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="Z5" s="30" t="str">
         <f t="shared" ref="Z5" si="4">X5</f>
@@ -1894,7 +1894,7 @@
         <v>128</v>
       </c>
       <c r="AB5" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="AC5" s="30" t="str">
         <f t="shared" ref="AC5" si="5">AA5</f>
@@ -1904,7 +1904,7 @@
         <v>128</v>
       </c>
       <c r="AE5" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="AF5" s="31" t="str">
         <f>AD5</f>
@@ -2000,7 +2000,7 @@
       <c r="AE6" s="41">
         <v>36</v>
       </c>
-      <c r="AF6" s="51">
+      <c r="AF6" s="50">
         <f t="shared" ref="AF6:AF7" si="13">AD6/AE6</f>
         <v>0</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>128</v>
       </c>
       <c r="Y8" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="Z8" s="30" t="str">
         <f t="shared" ref="Z8" si="20">X8</f>
@@ -2182,7 +2182,7 @@
         <v>128</v>
       </c>
       <c r="AB8" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="AC8" s="30" t="str">
         <f t="shared" ref="AC8" si="21">AA8</f>
@@ -2192,7 +2192,7 @@
         <v>128</v>
       </c>
       <c r="AE8" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="AF8" s="31" t="str">
         <f>AD8</f>
@@ -2288,7 +2288,7 @@
       <c r="AE9" s="41">
         <v>22</v>
       </c>
-      <c r="AF9" s="52">
+      <c r="AF9" s="51">
         <f t="shared" ref="AF9" si="28">AD9/AE9</f>
         <v>1</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="D10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="27" t="s">
@@ -2357,7 +2357,9 @@
       <c r="X10" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="Y10" s="29"/>
+      <c r="Y10" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="Z10" s="30" t="str">
         <f>X10</f>
         <v>SI</v>
@@ -2365,7 +2367,9 @@
       <c r="AA10" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="AB10" s="29"/>
+      <c r="AB10" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="AC10" s="30" t="str">
         <f>AA10</f>
         <v>SI</v>
@@ -2373,7 +2377,9 @@
       <c r="AD10" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="AE10" s="7"/>
+      <c r="AE10" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="AF10" s="12" t="str">
         <f>AD10</f>
         <v>SI</v>
@@ -2443,7 +2449,9 @@
       <c r="X11" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="Y11" s="29"/>
+      <c r="Y11" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="Z11" s="30" t="str">
         <f>X11</f>
         <v>SI</v>
@@ -2451,7 +2459,9 @@
       <c r="AA11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="AC11" s="11" t="str">
         <f>AA11</f>
         <v>SI</v>
@@ -2459,7 +2469,9 @@
       <c r="AD11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="AF11" s="12" t="str">
         <f>AD11</f>
         <v>SI</v>
@@ -2532,9 +2544,8 @@
       <c r="Y12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="Z12" s="42" t="e">
-        <f t="shared" ref="Z12:Z14" si="35">X12/Y12</f>
-        <v>#VALUE!</v>
+      <c r="Z12" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>133</v>
@@ -2542,24 +2553,23 @@
       <c r="AB12" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AC12" s="8" t="e">
-        <f t="shared" ref="AC12:AC14" si="36">AA12/AB12</f>
-        <v>#VALUE!</v>
+      <c r="AC12" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="AD12" s="46">
-        <v>33</v>
-      </c>
-      <c r="AE12" s="75">
-        <v>661299</v>
+        <v>3</v>
+      </c>
+      <c r="AE12" s="54">
+        <v>24717</v>
       </c>
       <c r="AF12" s="16">
-        <f t="shared" ref="AF12:AF14" si="37">AD12/AE12</f>
-        <v>4.9901784215612E-5</v>
+        <f t="shared" ref="AF12:AF14" si="35">AD12/AE12</f>
+        <v>1.2137395314965408E-4</v>
       </c>
       <c r="AG12" s="14"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="16" t="e">
-        <f t="shared" ref="AI12:AI14" si="38">AG12/AH12</f>
+        <f t="shared" ref="AI12:AI14" si="36">AG12/AH12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2645,7 +2655,7 @@
         <v>1032610</v>
       </c>
       <c r="Z13" s="42">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="Z12:Z14" si="37">X13/Y13</f>
         <v>1.8395134658777273E-2</v>
       </c>
       <c r="AA13" s="46">
@@ -2665,7 +2675,7 @@
         <v>1032610</v>
       </c>
       <c r="AF13" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>6.8104124500053265E-2</v>
       </c>
       <c r="AG13" s="46">
@@ -2675,7 +2685,7 @@
         <v>1032610</v>
       </c>
       <c r="AI13" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1.4885581197160594E-2</v>
       </c>
     </row>
@@ -2761,7 +2771,7 @@
         <v>273777</v>
       </c>
       <c r="Z14" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7.9042432344572401E-3</v>
       </c>
       <c r="AA14" s="46">
@@ -2771,7 +2781,7 @@
         <v>273777</v>
       </c>
       <c r="AC14" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AC12:AC14" si="38">AA14/AB14</f>
         <v>0.24313218422292596</v>
       </c>
       <c r="AD14" s="41">
@@ -2781,7 +2791,7 @@
         <v>273777</v>
       </c>
       <c r="AF14" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>9.0281506481552504E-2</v>
       </c>
       <c r="AG14" s="46">
@@ -2791,7 +2801,7 @@
         <v>273777</v>
       </c>
       <c r="AI14" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1.6623018003703745E-2</v>
       </c>
     </row>
@@ -3100,7 +3110,7 @@
       <c r="AK17" s="41"/>
     </row>
     <row r="18" spans="1:37" s="33" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="75">
         <v>14</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -3154,23 +3164,33 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="42" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="42" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="37" t="e">
+      <c r="X18" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD18" s="40">
+        <v>18</v>
+      </c>
+      <c r="AE18" s="41">
+        <v>28</v>
+      </c>
+      <c r="AF18" s="37">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AG18" s="40"/>
       <c r="AH18" s="41"/>
@@ -3344,7 +3364,7 @@
         <v>128</v>
       </c>
       <c r="Y20" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="Z20" s="30" t="str">
         <f t="shared" ref="Z20" si="52">X20</f>
@@ -3354,7 +3374,7 @@
         <v>128</v>
       </c>
       <c r="AB20" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="AC20" s="30" t="str">
         <f t="shared" ref="AC20" si="53">AA20</f>
@@ -3364,7 +3384,7 @@
         <v>128</v>
       </c>
       <c r="AE20" s="29" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="AF20" s="31" t="str">
         <f>AD20</f>
@@ -3538,10 +3558,10 @@
       <c r="A24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3573,10 +3593,10 @@
       <c r="A25" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3608,10 +3628,10 @@
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -30397,6 +30417,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="O3:Q3"/>
@@ -30412,17 +30437,12 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18 B5:B11 B13:B17" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B13:B17 B5:B11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Componente</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:P7 R6:S7 U6:V7 X6:Y7 AA6:AB7 I6:J7 AD6:AE7 AG6:AH7 L6:M7 L9:M9 O9:P9 R9:S9 U9:V9 X9:Y9 AA9:AB9 AD9:AE9 AG9:AH9 I9:J9 AE16:AE19 L16:M19 O16:P19 R16:S19 U16:V19 J16:J19 Y16:Y19 AG21:AH21 AB16:AB19 L21:M21 O21:P21 R21:S21 U21:V21 X21:Y21 AA21:AB21 AD21:AE21 I21:J21 I14:I19 AA15:AA19 AD15:AD19 AH16:AH19 AG15:AG19 X15:X19" xr:uid="{2633D78A-835B-4B63-85CC-13F49161A713}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:P7 R6:S7 U6:V7 X6:Y7 AA6:AB7 I6:J7 AD6:AE7 AG6:AH7 L6:M7 L9:M9 O9:P9 R9:S9 U9:V9 X9:Y9 AA9:AB9 AD9:AE9 AG9:AH9 I9:J9 L19:M19 O19:P19 R19:S19 U19:V19 AG21:AH21 I19:J19 L21:M21 O21:P21 R21:S21 U21:V21 X21:Y21 AA21:AB21 AD21:AE21 I21:J21 AA19:AB19 AG19:AH19 X19:Y19 X15:X17 AG15:AG17 AH16:AH17 AD15:AD17 AA15:AA17 I14:I17 AB16:AB17 Y16:Y17 J16:J17 U16:V17 R16:S17 O16:P17 L16:M17 AE16:AE17 AD19:AE19" xr:uid="{2633D78A-835B-4B63-85CC-13F49161A713}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
